--- a/1_DOCS/PROJECT PLAN.xlsx
+++ b/1_DOCS/PROJECT PLAN.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\MIER\1_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9BB11F-A90C-4A81-9747-2E538EF77361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A2E311-C085-4A43-A845-A530061C2A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2820" windowWidth="2556" windowHeight="3504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OLD" sheetId="1" r:id="rId1"/>
+    <sheet name="NEW" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>REFERENCES</t>
   </si>
@@ -34,6 +35,42 @@
   </si>
   <si>
     <t>Vendor Category</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
+  </si>
+  <si>
+    <t>Sales Invoice</t>
+  </si>
+  <si>
+    <t>PURCHASE</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Item Category</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -351,30 +388,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
   </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14B6043-910F-4A63-91DC-0FE72061CD94}">
+  <dimension ref="A3:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
